--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1477789.452406804</v>
+        <v>1476577.751658618</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907063.5773006273</v>
+        <v>907063.57730063</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6029930.936424412</v>
+        <v>6029930.936424411</v>
       </c>
     </row>
     <row r="11">
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H3" t="n">
         <v>41.31500304752735</v>
@@ -788,11 +788,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T3" t="n">
-        <v>36.39025468426208</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>41.31500304752735</v>
@@ -867,16 +867,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="V4" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.39025468426209</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,76 +1053,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="Y7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="G7" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>21.20364308168184</v>
-      </c>
-      <c r="S7" t="n">
-        <v>15.18661160258025</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,73 +1211,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="W9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>15.18661160258025</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="E10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="F10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.8212026841755</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>278.0434075022746</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T11" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>358.0106038440061</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T12" t="n">
         <v>127.1510498014634</v>
@@ -1539,7 +1539,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978608</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.5764026524035</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.063515415806595</v>
+        <v>5.0635154158066</v>
       </c>
       <c r="S13" t="n">
         <v>151.3932686552011</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>112.854129979759</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>278.0434075022746</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T14" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5772539351961</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T15" t="n">
         <v>127.1510498014634</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S16" t="n">
         <v>151.3932686552011</v>
@@ -1821,7 +1821,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U16" t="n">
-        <v>275.629091126406</v>
+        <v>275.6290911264057</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>396.5836142728851</v>
+        <v>396.5836142728859</v>
       </c>
       <c r="H17" t="n">
         <v>278.0434075022746</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T17" t="n">
         <v>214.3635095521018</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T18" t="n">
         <v>127.1510498014634</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S19" t="n">
         <v>151.3932686552011</v>
@@ -2058,7 +2058,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U19" t="n">
-        <v>275.629091126406</v>
+        <v>275.6290911264061</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897681</v>
       </c>
       <c r="T20" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5660605529467</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T21" t="n">
         <v>127.1510498014634</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S22" t="n">
         <v>151.3932686552011</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T23" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5660605529467</v>
+        <v>256.5660605529476</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T24" t="n">
         <v>127.1510498014634</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S25" t="n">
         <v>151.3932686552011</v>
@@ -2532,7 +2532,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U25" t="n">
-        <v>275.629091126406</v>
+        <v>275.6290911264061</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2566,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>423.588755294884</v>
       </c>
       <c r="G26" t="n">
         <v>396.5836142728854</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T26" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5660605529467</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T27" t="n">
         <v>127.1510498014634</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S28" t="n">
         <v>151.3932686552011</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.57991364897681</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T29" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5660605529458</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T30" t="n">
         <v>127.1510498014634</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S31" t="n">
         <v>151.3932686552011</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199219</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3040,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.588755294884</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>396.5836142728854</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T32" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5660605529466</v>
+        <v>256.5660605529467</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T33" t="n">
         <v>127.1510498014634</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S34" t="n">
         <v>151.3932686552011</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T35" t="n">
-        <v>214.3635095521012</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5660605529476</v>
+        <v>256.5660605529467</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T36" t="n">
         <v>127.1510498014634</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S37" t="n">
         <v>151.3932686552011</v>
@@ -3480,7 +3480,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6290911264061</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T38" t="n">
-        <v>214.3635095521012</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5660605529467</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T39" t="n">
         <v>127.1510498014634</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S40" t="n">
         <v>151.3932686552011</v>
@@ -3748,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>105.344282295451</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>229.6226364490608</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T42" t="n">
         <v>127.1510498014634</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S43" t="n">
         <v>151.3932686552011</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.4867283056188641</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>214.3635095521018</v>
@@ -4036,16 +4036,16 @@
         <v>256.5660605529466</v>
       </c>
       <c r="V44" t="n">
-        <v>298.2939576424235</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>54.8678968090653</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T45" t="n">
         <v>127.1510498014634</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.063515415806595</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S46" t="n">
         <v>151.3932686552011</v>
@@ -4342,16 +4342,16 @@
         <v>3.305200243802188</v>
       </c>
       <c r="N2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O2" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P2" t="n">
-        <v>83.45630615600527</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.03752655443588</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C3" t="n">
-        <v>45.03752655443588</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D3" t="n">
-        <v>45.03752655443588</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="E3" t="n">
-        <v>45.03752655443588</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="F3" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G3" t="n">
         <v>45.03752655443588</v>
@@ -4406,55 +4406,55 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="N3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="O3" t="n">
         <v>42.55445313895319</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>83.45630615600527</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P3" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T3" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="T3" t="n">
-        <v>86.76985286506957</v>
-      </c>
       <c r="U3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.03752655443588</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C4" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D4" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="E4" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="F4" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G4" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
         <v>45.03752655443588</v>
@@ -4488,25 +4488,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>3.305200243802188</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M4" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N4" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O4" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P4" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
@@ -4515,25 +4515,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U4" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V4" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W4" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X4" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="5">
@@ -4570,22 +4570,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L5" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M5" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N5" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O5" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="P5" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
         <v>165.2600121901094</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="E6" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="F6" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="G6" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L6" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M6" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N6" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O6" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P6" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="V6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="W6" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="T6" t="n">
-        <v>81.79535956884203</v>
-      </c>
-      <c r="U6" t="n">
-        <v>81.79535956884203</v>
-      </c>
-      <c r="V6" t="n">
-        <v>81.79535956884203</v>
-      </c>
-      <c r="W6" t="n">
-        <v>81.79535956884203</v>
-      </c>
       <c r="X6" t="n">
-        <v>81.79535956884203</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y6" t="n">
-        <v>81.79535956884203</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
         <v>3.305200243802188</v>
@@ -4725,34 +4725,34 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M7" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S7" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T7" t="n">
         <v>128.5021791757032</v>
@@ -4767,10 +4767,10 @@
         <v>128.5021791757032</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="8">
@@ -4795,34 +4795,34 @@
         <v>3.305200243802236</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="I8" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L8" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M8" t="n">
         <v>83.45630615600527</v>
       </c>
       <c r="N8" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O8" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P8" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q8" t="n">
         <v>124.3581591730573</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4883,28 +4883,28 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>70.27072642131186</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L9" t="n">
-        <v>111.1725794383639</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M9" t="n">
-        <v>152.074432455416</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N9" t="n">
-        <v>152.074432455416</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O9" t="n">
-        <v>152.074432455416</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P9" t="n">
-        <v>152.074432455416</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4913,22 +4913,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4962,25 +4962,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>83.45630615600527</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M10" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O10" t="n">
-        <v>165.2600121901094</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P10" t="n">
-        <v>165.2600121901094</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4992,22 +4992,22 @@
         <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U10" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V10" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W10" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X10" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y10" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1621.210500751664</v>
+        <v>1660.898504185541</v>
       </c>
       <c r="C11" t="n">
-        <v>1621.210500751664</v>
+        <v>1222.756031368964</v>
       </c>
       <c r="D11" t="n">
-        <v>1621.210500751664</v>
+        <v>786.8462465434084</v>
       </c>
       <c r="E11" t="n">
-        <v>1187.435755909959</v>
+        <v>786.8462465434084</v>
       </c>
       <c r="F11" t="n">
-        <v>759.568326319167</v>
+        <v>358.9788169526161</v>
       </c>
       <c r="G11" t="n">
         <v>358.9788169526161</v>
       </c>
       <c r="H11" t="n">
-        <v>78.12689018264167</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="I11" t="n">
         <v>108.2610888134436</v>
@@ -5044,49 +5044,49 @@
         <v>610.7558506061011</v>
       </c>
       <c r="K11" t="n">
-        <v>711.5312918502273</v>
+        <v>1545.881583808405</v>
       </c>
       <c r="L11" t="n">
-        <v>836.5521378876471</v>
+        <v>1670.902429845825</v>
       </c>
       <c r="M11" t="n">
-        <v>1803.372403897838</v>
+        <v>1810.012210000559</v>
       </c>
       <c r="N11" t="n">
-        <v>2770.192669908028</v>
+        <v>1951.372931832993</v>
       </c>
       <c r="O11" t="n">
-        <v>2903.67559101626</v>
+        <v>2113.139259982896</v>
       </c>
       <c r="P11" t="n">
-        <v>3601.87250570424</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q11" t="n">
-        <v>3687.425124480429</v>
+        <v>3687.425124480426</v>
       </c>
       <c r="R11" t="n">
-        <v>3906.344509132084</v>
+        <v>3906.344509132081</v>
       </c>
       <c r="S11" t="n">
-        <v>3841.112273123016</v>
+        <v>3841.112273123014</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.583475595641</v>
+        <v>3624.583475595638</v>
       </c>
       <c r="U11" t="n">
-        <v>3365.425838673472</v>
+        <v>3624.583475595638</v>
       </c>
       <c r="V11" t="n">
-        <v>3002.808888607299</v>
+        <v>3261.966525529465</v>
       </c>
       <c r="W11" t="n">
-        <v>2597.953434018332</v>
+        <v>2857.111070940498</v>
       </c>
       <c r="X11" t="n">
-        <v>2178.810970597643</v>
+        <v>2495.484198370795</v>
       </c>
       <c r="Y11" t="n">
-        <v>1770.524846897296</v>
+        <v>2087.198074670448</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>579.6891979750516</v>
       </c>
       <c r="C12" t="n">
-        <v>473.2327368116939</v>
+        <v>473.2327368116938</v>
       </c>
       <c r="D12" t="n">
         <v>378.1424479582471</v>
@@ -5108,37 +5108,37 @@
         <v>284.0220332852008</v>
       </c>
       <c r="F12" t="n">
-        <v>200.6381949013625</v>
+        <v>200.6381949013624</v>
       </c>
       <c r="G12" t="n">
-        <v>115.6855955713922</v>
+        <v>115.6855955713921</v>
       </c>
       <c r="H12" t="n">
-        <v>78.12689018264167</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="I12" t="n">
-        <v>118.7848097542955</v>
+        <v>92.72113659383787</v>
       </c>
       <c r="J12" t="n">
-        <v>483.3908623566324</v>
+        <v>428.685853577365</v>
       </c>
       <c r="K12" t="n">
-        <v>551.8388075949779</v>
+        <v>497.1337988157105</v>
       </c>
       <c r="L12" t="n">
-        <v>643.8755169690249</v>
+        <v>589.1705081897577</v>
       </c>
       <c r="M12" t="n">
-        <v>751.278015717408</v>
+        <v>696.5730069381407</v>
       </c>
       <c r="N12" t="n">
-        <v>861.5231390215514</v>
+        <v>806.818130242284</v>
       </c>
       <c r="O12" t="n">
-        <v>962.3758887117632</v>
+        <v>907.6708799324958</v>
       </c>
       <c r="P12" t="n">
-        <v>1043.319111673631</v>
+        <v>988.6141028943636</v>
       </c>
       <c r="Q12" t="n">
         <v>1583.461442488408</v>
@@ -5178,25 +5178,25 @@
         <v>1142.694818667513</v>
       </c>
       <c r="C13" t="n">
-        <v>970.1331071507378</v>
+        <v>970.1331071507383</v>
       </c>
       <c r="D13" t="n">
-        <v>804.2551143522605</v>
+        <v>804.255114352261</v>
       </c>
       <c r="E13" t="n">
-        <v>634.4971106029977</v>
+        <v>634.4971106029982</v>
       </c>
       <c r="F13" t="n">
-        <v>457.7900565647545</v>
+        <v>457.7900565647544</v>
       </c>
       <c r="G13" t="n">
-        <v>292.5613670168723</v>
+        <v>292.5613670168722</v>
       </c>
       <c r="H13" t="n">
         <v>155.8829067700801</v>
       </c>
       <c r="I13" t="n">
-        <v>78.12689018264167</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="J13" t="n">
         <v>189.8312326722277</v>
@@ -5205,13 +5205,13 @@
         <v>505.8772172179259</v>
       </c>
       <c r="L13" t="n">
-        <v>976.920922554275</v>
+        <v>976.9209225542749</v>
       </c>
       <c r="M13" t="n">
         <v>1492.110648839365</v>
       </c>
       <c r="N13" t="n">
-        <v>1988.750750280407</v>
+        <v>1988.750750280406</v>
       </c>
       <c r="O13" t="n">
         <v>2458.649930339091</v>
@@ -5226,25 +5226,25 @@
         <v>3041.972710015318</v>
       </c>
       <c r="S13" t="n">
-        <v>2889.050216424205</v>
+        <v>2889.050216424206</v>
       </c>
       <c r="T13" t="n">
-        <v>2644.719998642263</v>
+        <v>2644.719998642264</v>
       </c>
       <c r="U13" t="n">
-        <v>2366.306775282257</v>
+        <v>2366.306775282258</v>
       </c>
       <c r="V13" t="n">
         <v>2079.351267152688</v>
       </c>
       <c r="W13" t="n">
-        <v>1807.324862738979</v>
+        <v>1807.32486273898</v>
       </c>
       <c r="X13" t="n">
         <v>1561.933108072392</v>
       </c>
       <c r="Y13" t="n">
-        <v>1334.5134373865</v>
+        <v>1334.513437386501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2059.352973568241</v>
+        <v>1770.524846897294</v>
       </c>
       <c r="C14" t="n">
-        <v>1621.210500751664</v>
+        <v>1656.530776210669</v>
       </c>
       <c r="D14" t="n">
-        <v>1621.210500751664</v>
+        <v>1220.620991385113</v>
       </c>
       <c r="E14" t="n">
-        <v>1187.435755909959</v>
+        <v>786.8462465434084</v>
       </c>
       <c r="F14" t="n">
-        <v>759.568326319167</v>
+        <v>358.9788169526161</v>
       </c>
       <c r="G14" t="n">
         <v>358.9788169526161</v>
       </c>
       <c r="H14" t="n">
-        <v>78.12689018264173</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="I14" t="n">
-        <v>108.2610888134437</v>
+        <v>108.2610888134436</v>
       </c>
       <c r="J14" t="n">
-        <v>175.5011631531833</v>
+        <v>610.7558506061011</v>
       </c>
       <c r="K14" t="n">
-        <v>276.2766043973094</v>
+        <v>711.5312918502274</v>
       </c>
       <c r="L14" t="n">
-        <v>401.2974504347292</v>
+        <v>836.5521378876472</v>
       </c>
       <c r="M14" t="n">
-        <v>1176.962667548971</v>
+        <v>975.6619180423805</v>
       </c>
       <c r="N14" t="n">
-        <v>2143.782933559162</v>
+        <v>1942.482184052571</v>
       </c>
       <c r="O14" t="n">
-        <v>3110.603199569353</v>
+        <v>2909.302450062761</v>
       </c>
       <c r="P14" t="n">
-        <v>3224.527784498704</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q14" t="n">
-        <v>3856.579189233488</v>
+        <v>3687.425124480426</v>
       </c>
       <c r="R14" t="n">
-        <v>3906.344509132086</v>
+        <v>3906.344509132081</v>
       </c>
       <c r="S14" t="n">
-        <v>3841.112273123019</v>
+        <v>3841.112273123014</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.583475595643</v>
+        <v>3624.583475595638</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.583475595643</v>
+        <v>3365.42583867347</v>
       </c>
       <c r="V14" t="n">
-        <v>3261.96652552947</v>
+        <v>3002.808888607296</v>
       </c>
       <c r="W14" t="n">
-        <v>2857.111070940503</v>
+        <v>2597.95343401833</v>
       </c>
       <c r="X14" t="n">
-        <v>2467.639097268588</v>
+        <v>2178.810970597641</v>
       </c>
       <c r="Y14" t="n">
-        <v>2059.352973568241</v>
+        <v>1770.524846897294</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>579.6891979750517</v>
+        <v>579.6891979750516</v>
       </c>
       <c r="C15" t="n">
-        <v>473.2327368116939</v>
+        <v>473.2327368116938</v>
       </c>
       <c r="D15" t="n">
-        <v>378.1424479582472</v>
+        <v>378.1424479582471</v>
       </c>
       <c r="E15" t="n">
-        <v>284.0220332852009</v>
+        <v>284.0220332852008</v>
       </c>
       <c r="F15" t="n">
-        <v>200.6381949013625</v>
+        <v>200.6381949013624</v>
       </c>
       <c r="G15" t="n">
-        <v>115.6855955713922</v>
+        <v>115.6855955713921</v>
       </c>
       <c r="H15" t="n">
-        <v>78.12689018264173</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="I15" t="n">
-        <v>92.72113659383797</v>
+        <v>118.7848097542955</v>
       </c>
       <c r="J15" t="n">
-        <v>132.7688642299626</v>
+        <v>483.3908623566324</v>
       </c>
       <c r="K15" t="n">
-        <v>201.216809468308</v>
+        <v>551.8388075949779</v>
       </c>
       <c r="L15" t="n">
-        <v>293.2535188423552</v>
+        <v>643.8755169690249</v>
       </c>
       <c r="M15" t="n">
-        <v>497.9095809585086</v>
+        <v>751.278015717408</v>
       </c>
       <c r="N15" t="n">
-        <v>1464.7298469687</v>
+        <v>861.5231390215514</v>
       </c>
       <c r="O15" t="n">
-        <v>1565.582596658912</v>
+        <v>962.3758887117632</v>
       </c>
       <c r="P15" t="n">
-        <v>1646.525819620779</v>
+        <v>1043.319111673631</v>
       </c>
       <c r="Q15" t="n">
-        <v>1700.634220582748</v>
+        <v>1583.461442488408</v>
       </c>
       <c r="R15" t="n">
         <v>1726.952201754327</v>
@@ -5396,13 +5396,13 @@
         <v>1167.66906830352</v>
       </c>
       <c r="W15" t="n">
-        <v>982.3463140367141</v>
+        <v>982.3463140367139</v>
       </c>
       <c r="X15" t="n">
-        <v>827.4788782755941</v>
+        <v>827.478878275594</v>
       </c>
       <c r="Y15" t="n">
-        <v>700.9930990548148</v>
+        <v>700.9930990548147</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1142.694818667514</v>
+        <v>1142.694818667513</v>
       </c>
       <c r="C16" t="n">
-        <v>970.1331071507387</v>
+        <v>970.1331071507383</v>
       </c>
       <c r="D16" t="n">
-        <v>804.2551143522614</v>
+        <v>804.255114352261</v>
       </c>
       <c r="E16" t="n">
-        <v>634.4971106029986</v>
+        <v>634.4971106029982</v>
       </c>
       <c r="F16" t="n">
-        <v>457.7900565647549</v>
+        <v>457.7900565647544</v>
       </c>
       <c r="G16" t="n">
-        <v>292.5613670168723</v>
+        <v>292.5613670168722</v>
       </c>
       <c r="H16" t="n">
-        <v>155.8829067700802</v>
+        <v>155.8829067700801</v>
       </c>
       <c r="I16" t="n">
-        <v>78.12689018264173</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="J16" t="n">
-        <v>189.8312326722278</v>
+        <v>189.8312326722277</v>
       </c>
       <c r="K16" t="n">
-        <v>505.877217217926</v>
+        <v>505.8772172179259</v>
       </c>
       <c r="L16" t="n">
-        <v>976.9209225542751</v>
+        <v>976.9209225542749</v>
       </c>
       <c r="M16" t="n">
         <v>1492.110648839365</v>
       </c>
       <c r="N16" t="n">
-        <v>1988.750750280407</v>
+        <v>1988.750750280406</v>
       </c>
       <c r="O16" t="n">
         <v>2458.649930339091</v>
@@ -5460,25 +5460,25 @@
         <v>3047.087372051486</v>
       </c>
       <c r="R16" t="n">
-        <v>3041.972710015319</v>
+        <v>3041.972710015318</v>
       </c>
       <c r="S16" t="n">
-        <v>2889.050216424206</v>
+        <v>2889.050216424205</v>
       </c>
       <c r="T16" t="n">
-        <v>2644.719998642264</v>
+        <v>2644.719998642263</v>
       </c>
       <c r="U16" t="n">
         <v>2366.306775282258</v>
       </c>
       <c r="V16" t="n">
-        <v>2079.351267152689</v>
+        <v>2079.351267152688</v>
       </c>
       <c r="W16" t="n">
         <v>1807.32486273898</v>
       </c>
       <c r="X16" t="n">
-        <v>1561.933108072393</v>
+        <v>1561.933108072392</v>
       </c>
       <c r="Y16" t="n">
         <v>1334.513437386501</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2518.753319250559</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C17" t="n">
-        <v>2080.610846433983</v>
+        <v>2080.610846433984</v>
       </c>
       <c r="D17" t="n">
-        <v>1644.701061608427</v>
+        <v>1644.701061608428</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.926316766722</v>
+        <v>1210.926316766723</v>
       </c>
       <c r="F17" t="n">
-        <v>783.0588871759301</v>
+        <v>783.058887175931</v>
       </c>
       <c r="G17" t="n">
         <v>382.4693778093795</v>
@@ -5515,52 +5515,52 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J17" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K17" t="n">
-        <v>1134.117457212251</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L17" t="n">
-        <v>1259.138303249671</v>
+        <v>1893.534213155364</v>
       </c>
       <c r="M17" t="n">
-        <v>1398.248083404404</v>
+        <v>2032.643993310097</v>
       </c>
       <c r="N17" t="n">
         <v>2174.004715142531</v>
       </c>
       <c r="O17" t="n">
-        <v>3287.667302821069</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P17" t="n">
-        <v>4229.901762583816</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q17" t="n">
-        <v>4861.953167318599</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R17" t="n">
-        <v>5080.872551970255</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S17" t="n">
-        <v>5015.640315961187</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T17" t="n">
-        <v>4799.111518433811</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U17" t="n">
-        <v>4539.953881511643</v>
+        <v>4539.953881511644</v>
       </c>
       <c r="V17" t="n">
-        <v>4177.336931445469</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W17" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856504</v>
       </c>
       <c r="X17" t="n">
-        <v>3353.339013435814</v>
+        <v>3353.339013435815</v>
       </c>
       <c r="Y17" t="n">
-        <v>2945.052889735467</v>
+        <v>2945.052889735468</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>603.179758831815</v>
+        <v>603.1797588318151</v>
       </c>
       <c r="C18" t="n">
         <v>496.7232976684573</v>
@@ -5591,31 +5591,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I18" t="n">
-        <v>116.2116974506013</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J18" t="n">
-        <v>480.8177500529383</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K18" t="n">
-        <v>549.2656952912837</v>
+        <v>575.3293684517413</v>
       </c>
       <c r="L18" t="n">
-        <v>641.3024046653309</v>
+        <v>667.3660778257885</v>
       </c>
       <c r="M18" t="n">
-        <v>748.7049034137139</v>
+        <v>774.7685765741714</v>
       </c>
       <c r="N18" t="n">
-        <v>858.9500267178573</v>
+        <v>885.0136998783148</v>
       </c>
       <c r="O18" t="n">
-        <v>959.802776408069</v>
+        <v>985.8664495685266</v>
       </c>
       <c r="P18" t="n">
-        <v>1040.745999369937</v>
+        <v>1066.809672530394</v>
       </c>
       <c r="Q18" t="n">
-        <v>1635.593338963981</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R18" t="n">
         <v>1750.44276261109</v>
@@ -5636,10 +5636,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X18" t="n">
-        <v>850.9694391323574</v>
+        <v>850.9694391323575</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.4836599115781</v>
+        <v>724.4836599115782</v>
       </c>
     </row>
     <row r="19">
@@ -5667,19 +5667,19 @@
         <v>316.0519278736357</v>
       </c>
       <c r="H19" t="n">
-        <v>179.3734676268435</v>
+        <v>179.3734676268436</v>
       </c>
       <c r="I19" t="n">
         <v>101.6174510394051</v>
       </c>
       <c r="J19" t="n">
-        <v>213.3217935289917</v>
+        <v>213.3217935289912</v>
       </c>
       <c r="K19" t="n">
-        <v>529.3677780746899</v>
+        <v>529.3677780746895</v>
       </c>
       <c r="L19" t="n">
-        <v>1000.411483411039</v>
+        <v>1000.411483411038</v>
       </c>
       <c r="M19" t="n">
         <v>1515.601209696129</v>
@@ -5688,7 +5688,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O19" t="n">
-        <v>2482.140491195855</v>
+        <v>2482.140491195854</v>
       </c>
       <c r="P19" t="n">
         <v>2872.627768482439</v>
@@ -5697,7 +5697,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R19" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S19" t="n">
         <v>2912.540777280969</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2518.753319250559</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C20" t="n">
         <v>2080.610846433983</v>
       </c>
       <c r="D20" t="n">
-        <v>1644.701061608427</v>
+        <v>1644.701061608428</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.926316766722</v>
+        <v>1210.926316766723</v>
       </c>
       <c r="F20" t="n">
-        <v>783.0588871759301</v>
+        <v>783.0588871759304</v>
       </c>
       <c r="G20" t="n">
         <v>382.4693778093795</v>
@@ -5752,43 +5752,43 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J20" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K20" t="n">
-        <v>1134.117457212251</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L20" t="n">
-        <v>2334.198269502529</v>
+        <v>2769.452956955448</v>
       </c>
       <c r="M20" t="n">
-        <v>2473.308049657263</v>
+        <v>3012.823659880403</v>
       </c>
       <c r="N20" t="n">
-        <v>2614.668771489698</v>
+        <v>3154.184381712838</v>
       </c>
       <c r="O20" t="n">
-        <v>3728.331359168236</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P20" t="n">
-        <v>4670.565818930983</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q20" t="n">
-        <v>4861.953167318599</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R20" t="n">
-        <v>5080.872551970255</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S20" t="n">
-        <v>5015.640315961187</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T20" t="n">
-        <v>4799.111518433811</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U20" t="n">
-        <v>4539.953881511643</v>
+        <v>4539.953881511644</v>
       </c>
       <c r="V20" t="n">
-        <v>4177.336931445469</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W20" t="n">
         <v>3772.481476856503</v>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>603.179758831815</v>
+        <v>603.1797588318151</v>
       </c>
       <c r="C21" t="n">
         <v>496.7232976684573</v>
@@ -5828,28 +5828,28 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I21" t="n">
-        <v>116.2116974506013</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J21" t="n">
-        <v>156.259425086726</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K21" t="n">
-        <v>224.7073703250715</v>
+        <v>575.3293684517413</v>
       </c>
       <c r="L21" t="n">
-        <v>612.6610690465213</v>
+        <v>667.3660778257885</v>
       </c>
       <c r="M21" t="n">
-        <v>720.0635677949044</v>
+        <v>774.7685765741714</v>
       </c>
       <c r="N21" t="n">
-        <v>830.3086910990478</v>
+        <v>885.0136998783148</v>
       </c>
       <c r="O21" t="n">
-        <v>931.1614407892595</v>
+        <v>985.8664495685266</v>
       </c>
       <c r="P21" t="n">
-        <v>1012.104663751127</v>
+        <v>1066.809672530394</v>
       </c>
       <c r="Q21" t="n">
         <v>1606.952003345172</v>
@@ -5873,10 +5873,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X21" t="n">
-        <v>850.9694391323574</v>
+        <v>850.9694391323575</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.4836599115781</v>
+        <v>724.4836599115782</v>
       </c>
     </row>
     <row r="22">
@@ -5904,7 +5904,7 @@
         <v>316.0519278736357</v>
       </c>
       <c r="H22" t="n">
-        <v>179.3734676268435</v>
+        <v>179.3734676268436</v>
       </c>
       <c r="I22" t="n">
         <v>101.6174510394051</v>
@@ -5974,10 +5974,10 @@
         <v>1644.701061608427</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.926316766722</v>
+        <v>1210.926316766723</v>
       </c>
       <c r="F23" t="n">
-        <v>783.0588871759301</v>
+        <v>783.0588871759304</v>
       </c>
       <c r="G23" t="n">
         <v>382.4693778093795</v>
@@ -5992,34 +5992,34 @@
         <v>634.2464114628646</v>
       </c>
       <c r="K23" t="n">
-        <v>735.0218527069907</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L23" t="n">
-        <v>860.0426987444105</v>
+        <v>2769.452956955448</v>
       </c>
       <c r="M23" t="n">
-        <v>999.1524788991438</v>
+        <v>3012.823659880403</v>
       </c>
       <c r="N23" t="n">
-        <v>2174.004715142531</v>
+        <v>3154.184381712838</v>
       </c>
       <c r="O23" t="n">
-        <v>3287.667302821069</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P23" t="n">
-        <v>4229.901762583816</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q23" t="n">
-        <v>4861.953167318599</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R23" t="n">
-        <v>5080.872551970255</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S23" t="n">
-        <v>5015.640315961187</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T23" t="n">
-        <v>4799.111518433811</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U23" t="n">
         <v>4539.953881511643</v>
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>603.179758831815</v>
+        <v>603.1797588318151</v>
       </c>
       <c r="C24" t="n">
         <v>496.7232976684573</v>
@@ -6065,31 +6065,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I24" t="n">
-        <v>116.2116974506013</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J24" t="n">
-        <v>156.259425086726</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K24" t="n">
-        <v>224.7073703250715</v>
+        <v>575.3293684517413</v>
       </c>
       <c r="L24" t="n">
-        <v>316.7440796991186</v>
+        <v>667.3660778257885</v>
       </c>
       <c r="M24" t="n">
-        <v>424.1465784475016</v>
+        <v>774.7685765741714</v>
       </c>
       <c r="N24" t="n">
-        <v>534.391701751645</v>
+        <v>885.0136998783148</v>
       </c>
       <c r="O24" t="n">
-        <v>769.3499910364766</v>
+        <v>985.8664495685266</v>
       </c>
       <c r="P24" t="n">
-        <v>1670.016380477542</v>
+        <v>1066.809672530394</v>
       </c>
       <c r="Q24" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R24" t="n">
         <v>1750.44276261109</v>
@@ -6110,10 +6110,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X24" t="n">
-        <v>850.9694391323574</v>
+        <v>850.9694391323575</v>
       </c>
       <c r="Y24" t="n">
-        <v>724.4836599115781</v>
+        <v>724.4836599115782</v>
       </c>
     </row>
     <row r="25">
@@ -6141,7 +6141,7 @@
         <v>316.0519278736357</v>
       </c>
       <c r="H25" t="n">
-        <v>179.3734676268435</v>
+        <v>179.3734676268436</v>
       </c>
       <c r="I25" t="n">
         <v>101.6174510394051</v>
@@ -6150,10 +6150,10 @@
         <v>213.3217935289912</v>
       </c>
       <c r="K25" t="n">
-        <v>529.3677780746899</v>
+        <v>529.3677780746895</v>
       </c>
       <c r="L25" t="n">
-        <v>1000.411483411039</v>
+        <v>1000.411483411038</v>
       </c>
       <c r="M25" t="n">
         <v>1515.601209696129</v>
@@ -6162,7 +6162,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O25" t="n">
-        <v>2482.140491195855</v>
+        <v>2482.140491195854</v>
       </c>
       <c r="P25" t="n">
         <v>2872.627768482439</v>
@@ -6171,7 +6171,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R25" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S25" t="n">
         <v>2912.540777280969</v>
@@ -6232,22 +6232,22 @@
         <v>299.7671652540728</v>
       </c>
       <c r="L26" t="n">
-        <v>424.7880112914926</v>
+        <v>1499.847977544352</v>
       </c>
       <c r="M26" t="n">
-        <v>1682.303967904131</v>
+        <v>2757.36393415699</v>
       </c>
       <c r="N26" t="n">
-        <v>2174.004715142531</v>
+        <v>4014.879890769628</v>
       </c>
       <c r="O26" t="n">
-        <v>3287.667302821069</v>
+        <v>4831.630028366117</v>
       </c>
       <c r="P26" t="n">
-        <v>4229.901762583816</v>
+        <v>4945.554613295467</v>
       </c>
       <c r="Q26" t="n">
-        <v>4861.953167318599</v>
+        <v>5031.107232071656</v>
       </c>
       <c r="R26" t="n">
         <v>5080.872551970255</v>
@@ -6305,25 +6305,25 @@
         <v>142.2753706110589</v>
       </c>
       <c r="J27" t="n">
-        <v>452.1764144341287</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K27" t="n">
-        <v>520.6243596724742</v>
+        <v>575.3293684517413</v>
       </c>
       <c r="L27" t="n">
-        <v>612.6610690465213</v>
+        <v>667.3660778257885</v>
       </c>
       <c r="M27" t="n">
-        <v>720.0635677949044</v>
+        <v>774.7685765741714</v>
       </c>
       <c r="N27" t="n">
-        <v>830.3086910990478</v>
+        <v>885.0136998783148</v>
       </c>
       <c r="O27" t="n">
-        <v>931.1614407892595</v>
+        <v>985.8664495685266</v>
       </c>
       <c r="P27" t="n">
-        <v>1012.104663751127</v>
+        <v>1066.809672530394</v>
       </c>
       <c r="Q27" t="n">
         <v>1606.952003345172</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2518.75331925056</v>
+        <v>2518.753319250559</v>
       </c>
       <c r="C29" t="n">
         <v>2080.610846433983</v>
@@ -6466,25 +6466,25 @@
         <v>634.2464114628646</v>
       </c>
       <c r="K29" t="n">
-        <v>1569.372144665169</v>
+        <v>813.8803169892732</v>
       </c>
       <c r="L29" t="n">
-        <v>1924.461768020821</v>
+        <v>2013.961129279552</v>
       </c>
       <c r="M29" t="n">
-        <v>3181.977724633459</v>
+        <v>3271.47708589219</v>
       </c>
       <c r="N29" t="n">
-        <v>3323.338446465893</v>
+        <v>4528.993042504828</v>
       </c>
       <c r="O29" t="n">
-        <v>3456.821367574126</v>
+        <v>4662.47596361306</v>
       </c>
       <c r="P29" t="n">
-        <v>4399.055827336872</v>
+        <v>4776.40054854241</v>
       </c>
       <c r="Q29" t="n">
-        <v>5031.107232071656</v>
+        <v>4861.953167318599</v>
       </c>
       <c r="R29" t="n">
         <v>5080.872551970255</v>
@@ -6496,10 +6496,10 @@
         <v>4799.111518433811</v>
       </c>
       <c r="U29" t="n">
-        <v>4539.953881511644</v>
+        <v>4539.953881511643</v>
       </c>
       <c r="V29" t="n">
-        <v>4177.33693144547</v>
+        <v>4177.336931445469</v>
       </c>
       <c r="W29" t="n">
         <v>3772.481476856503</v>
@@ -6539,28 +6539,28 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I30" t="n">
-        <v>116.2116974506013</v>
+        <v>142.2753706110589</v>
       </c>
       <c r="J30" t="n">
-        <v>452.1764144341287</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K30" t="n">
-        <v>520.6243596724742</v>
+        <v>575.3293684517413</v>
       </c>
       <c r="L30" t="n">
-        <v>612.6610690465213</v>
+        <v>667.3660778257885</v>
       </c>
       <c r="M30" t="n">
-        <v>720.0635677949044</v>
+        <v>774.7685765741714</v>
       </c>
       <c r="N30" t="n">
-        <v>830.3086910990478</v>
+        <v>885.0136998783148</v>
       </c>
       <c r="O30" t="n">
-        <v>931.1614407892595</v>
+        <v>985.8664495685266</v>
       </c>
       <c r="P30" t="n">
-        <v>1012.104663751127</v>
+        <v>1066.809672530394</v>
       </c>
       <c r="Q30" t="n">
         <v>1606.952003345172</v>
@@ -6621,13 +6621,13 @@
         <v>101.6174510394051</v>
       </c>
       <c r="J31" t="n">
-        <v>213.3217935289912</v>
+        <v>213.3217935289917</v>
       </c>
       <c r="K31" t="n">
-        <v>529.3677780746895</v>
+        <v>529.3677780746899</v>
       </c>
       <c r="L31" t="n">
-        <v>1000.411483411038</v>
+        <v>1000.411483411039</v>
       </c>
       <c r="M31" t="n">
         <v>1515.601209696129</v>
@@ -6636,7 +6636,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O31" t="n">
-        <v>2482.140491195854</v>
+        <v>2482.140491195855</v>
       </c>
       <c r="P31" t="n">
         <v>2872.627768482439</v>
@@ -6645,7 +6645,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R31" t="n">
-        <v>3065.463270872081</v>
+        <v>3065.463270872082</v>
       </c>
       <c r="S31" t="n">
         <v>2912.540777280969</v>
@@ -6660,7 +6660,7 @@
         <v>2102.841828009452</v>
       </c>
       <c r="W31" t="n">
-        <v>1830.815423595744</v>
+        <v>1830.815423595743</v>
       </c>
       <c r="X31" t="n">
         <v>1585.423668929156</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2518.753319250559</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C32" t="n">
         <v>2080.610846433983</v>
       </c>
       <c r="D32" t="n">
-        <v>1644.701061608427</v>
+        <v>1644.701061608428</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.926316766722</v>
+        <v>1210.926316766723</v>
       </c>
       <c r="F32" t="n">
-        <v>783.0588871759303</v>
+        <v>783.0588871759305</v>
       </c>
       <c r="G32" t="n">
         <v>382.4693778093795</v>
@@ -6703,40 +6703,40 @@
         <v>634.2464114628646</v>
       </c>
       <c r="K32" t="n">
-        <v>735.0218527069907</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L32" t="n">
-        <v>1935.10266499727</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M32" t="n">
-        <v>3012.823659880402</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N32" t="n">
-        <v>3154.184381712837</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O32" t="n">
-        <v>3287.667302821069</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P32" t="n">
-        <v>4229.901762583816</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q32" t="n">
-        <v>4861.953167318599</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R32" t="n">
-        <v>5080.872551970255</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S32" t="n">
-        <v>5015.640315961187</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T32" t="n">
-        <v>4799.111518433811</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U32" t="n">
-        <v>4539.953881511643</v>
+        <v>4539.953881511644</v>
       </c>
       <c r="V32" t="n">
-        <v>4177.336931445469</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W32" t="n">
         <v>3772.481476856503</v>
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>603.179758831815</v>
+        <v>603.1797588318151</v>
       </c>
       <c r="C33" t="n">
         <v>496.7232976684573</v>
@@ -6776,28 +6776,28 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I33" t="n">
-        <v>142.2753706110589</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J33" t="n">
-        <v>182.3230982471836</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K33" t="n">
-        <v>931.5045635559063</v>
+        <v>575.3293684517413</v>
       </c>
       <c r="L33" t="n">
-        <v>1023.541272929953</v>
+        <v>667.3660778257885</v>
       </c>
       <c r="M33" t="n">
-        <v>1130.943771678336</v>
+        <v>774.7685765741714</v>
       </c>
       <c r="N33" t="n">
-        <v>1241.18889498248</v>
+        <v>885.0136998783148</v>
       </c>
       <c r="O33" t="n">
-        <v>1342.041644672692</v>
+        <v>985.8664495685266</v>
       </c>
       <c r="P33" t="n">
-        <v>1422.984867634559</v>
+        <v>1066.809672530394</v>
       </c>
       <c r="Q33" t="n">
         <v>1606.952003345172</v>
@@ -6821,10 +6821,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X33" t="n">
-        <v>850.9694391323574</v>
+        <v>850.9694391323575</v>
       </c>
       <c r="Y33" t="n">
-        <v>724.4836599115781</v>
+        <v>724.4836599115782</v>
       </c>
     </row>
     <row r="34">
@@ -6852,7 +6852,7 @@
         <v>316.0519278736357</v>
       </c>
       <c r="H34" t="n">
-        <v>179.3734676268435</v>
+        <v>179.3734676268436</v>
       </c>
       <c r="I34" t="n">
         <v>101.6174510394051</v>
@@ -6916,16 +6916,16 @@
         <v>2518.75331925056</v>
       </c>
       <c r="C35" t="n">
-        <v>2080.610846433984</v>
+        <v>2080.610846433983</v>
       </c>
       <c r="D35" t="n">
-        <v>1644.701061608428</v>
+        <v>1644.701061608427</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.926316766723</v>
+        <v>1210.926316766722</v>
       </c>
       <c r="F35" t="n">
-        <v>783.058887175931</v>
+        <v>783.0588871759303</v>
       </c>
       <c r="G35" t="n">
         <v>382.4693778093795</v>
@@ -6943,10 +6943,10 @@
         <v>1569.372144665169</v>
       </c>
       <c r="L35" t="n">
-        <v>1893.534213155364</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M35" t="n">
-        <v>2032.643993310097</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N35" t="n">
         <v>2174.004715142531</v>
@@ -6967,7 +6967,7 @@
         <v>5015.640315961188</v>
       </c>
       <c r="T35" t="n">
-        <v>4799.111518433813</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U35" t="n">
         <v>4539.953881511644</v>
@@ -6976,13 +6976,13 @@
         <v>4177.33693144547</v>
       </c>
       <c r="W35" t="n">
-        <v>3772.481476856504</v>
+        <v>3772.481476856503</v>
       </c>
       <c r="X35" t="n">
-        <v>3353.339013435815</v>
+        <v>3353.339013435814</v>
       </c>
       <c r="Y35" t="n">
-        <v>2945.052889735468</v>
+        <v>2945.052889735467</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>142.275370611059</v>
       </c>
       <c r="J36" t="n">
-        <v>182.3230982471836</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K36" t="n">
-        <v>250.771043485529</v>
+        <v>575.3293684517413</v>
       </c>
       <c r="L36" t="n">
-        <v>1153.400007678597</v>
+        <v>667.3660778257885</v>
       </c>
       <c r="M36" t="n">
-        <v>1260.80250642698</v>
+        <v>774.7685765741714</v>
       </c>
       <c r="N36" t="n">
-        <v>1371.047629731123</v>
+        <v>885.0136998783148</v>
       </c>
       <c r="O36" t="n">
-        <v>1471.900379421335</v>
+        <v>985.8664495685266</v>
       </c>
       <c r="P36" t="n">
-        <v>1552.843602383203</v>
+        <v>1066.809672530394</v>
       </c>
       <c r="Q36" t="n">
         <v>1606.952003345172</v>
@@ -7134,7 +7134,7 @@
         <v>2102.841828009452</v>
       </c>
       <c r="W37" t="n">
-        <v>1830.815423595743</v>
+        <v>1830.815423595744</v>
       </c>
       <c r="X37" t="n">
         <v>1585.423668929156</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2518.753319250559</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C38" t="n">
         <v>2080.610846433983</v>
       </c>
       <c r="D38" t="n">
-        <v>1644.701061608427</v>
+        <v>1644.701061608428</v>
       </c>
       <c r="E38" t="n">
-        <v>1210.926316766722</v>
+        <v>1210.926316766723</v>
       </c>
       <c r="F38" t="n">
-        <v>783.0588871759301</v>
+        <v>783.0588871759304</v>
       </c>
       <c r="G38" t="n">
         <v>382.4693778093795</v>
@@ -7171,10 +7171,10 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I38" t="n">
-        <v>131.751649670207</v>
+        <v>131.7516496702071</v>
       </c>
       <c r="J38" t="n">
-        <v>634.2464114628644</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K38" t="n">
         <v>1569.372144665169</v>
@@ -7186,40 +7186,40 @@
         <v>1833.502770857322</v>
       </c>
       <c r="N38" t="n">
-        <v>3091.01872746996</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O38" t="n">
-        <v>4204.681315148498</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P38" t="n">
-        <v>4318.605900077849</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q38" t="n">
-        <v>4861.953167318598</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R38" t="n">
-        <v>5080.872551970254</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S38" t="n">
-        <v>5015.640315961186</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T38" t="n">
-        <v>4799.111518433811</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U38" t="n">
-        <v>4539.953881511643</v>
+        <v>4539.953881511644</v>
       </c>
       <c r="V38" t="n">
-        <v>4177.336931445469</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W38" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856504</v>
       </c>
       <c r="X38" t="n">
-        <v>3353.339013435814</v>
+        <v>3353.339013435815</v>
       </c>
       <c r="Y38" t="n">
-        <v>2945.052889735467</v>
+        <v>2945.052889735468</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.179758831815</v>
+        <v>603.1797588318151</v>
       </c>
       <c r="C39" t="n">
         <v>496.7232976684573</v>
@@ -7250,28 +7250,28 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I39" t="n">
-        <v>116.2116974506013</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J39" t="n">
-        <v>156.2594250867259</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K39" t="n">
-        <v>224.7073703250714</v>
+        <v>575.3293684517413</v>
       </c>
       <c r="L39" t="n">
-        <v>316.7440796991185</v>
+        <v>667.3660778257885</v>
       </c>
       <c r="M39" t="n">
-        <v>424.1465784475015</v>
+        <v>774.7685765741714</v>
       </c>
       <c r="N39" t="n">
-        <v>534.3917017516449</v>
+        <v>885.0136998783148</v>
       </c>
       <c r="O39" t="n">
-        <v>1471.900379421335</v>
+        <v>985.8664495685266</v>
       </c>
       <c r="P39" t="n">
-        <v>1552.843602383203</v>
+        <v>1066.809672530394</v>
       </c>
       <c r="Q39" t="n">
         <v>1606.952003345172</v>
@@ -7295,10 +7295,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X39" t="n">
-        <v>850.9694391323574</v>
+        <v>850.9694391323575</v>
       </c>
       <c r="Y39" t="n">
-        <v>724.4836599115781</v>
+        <v>724.4836599115782</v>
       </c>
     </row>
     <row r="40">
@@ -7311,22 +7311,22 @@
         <v>1166.185379524277</v>
       </c>
       <c r="C40" t="n">
-        <v>993.6236680075018</v>
+        <v>993.6236680075021</v>
       </c>
       <c r="D40" t="n">
-        <v>827.7456752090245</v>
+        <v>827.7456752090247</v>
       </c>
       <c r="E40" t="n">
         <v>657.9876714597617</v>
       </c>
       <c r="F40" t="n">
-        <v>481.2806174215179</v>
+        <v>481.2806174215181</v>
       </c>
       <c r="G40" t="n">
         <v>316.0519278736357</v>
       </c>
       <c r="H40" t="n">
-        <v>179.3734676268435</v>
+        <v>179.3734676268436</v>
       </c>
       <c r="I40" t="n">
         <v>101.6174510394051</v>
@@ -7356,7 +7356,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R40" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S40" t="n">
         <v>2912.540777280969</v>
@@ -7371,13 +7371,13 @@
         <v>2102.841828009452</v>
       </c>
       <c r="W40" t="n">
-        <v>1830.815423595743</v>
+        <v>1830.815423595744</v>
       </c>
       <c r="X40" t="n">
         <v>1585.423668929156</v>
       </c>
       <c r="Y40" t="n">
-        <v>1358.003998243264</v>
+        <v>1358.003998243265</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2495.262758393796</v>
+        <v>2061.488013552092</v>
       </c>
       <c r="C41" t="n">
-        <v>2057.120285577219</v>
+        <v>1623.345540735515</v>
       </c>
       <c r="D41" t="n">
-        <v>1621.210500751664</v>
+        <v>1187.435755909959</v>
       </c>
       <c r="E41" t="n">
         <v>1187.435755909959</v>
@@ -7405,58 +7405,58 @@
         <v>358.9788169526161</v>
       </c>
       <c r="H41" t="n">
-        <v>78.12689018264172</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I41" t="n">
-        <v>108.2610888134437</v>
+        <v>108.2610888134436</v>
       </c>
       <c r="J41" t="n">
         <v>610.7558506061011</v>
       </c>
       <c r="K41" t="n">
-        <v>711.5312918502273</v>
+        <v>1545.881583808405</v>
       </c>
       <c r="L41" t="n">
-        <v>836.5521378876471</v>
+        <v>1699.185836887496</v>
       </c>
       <c r="M41" t="n">
-        <v>1803.372403897838</v>
+        <v>1838.29561704223</v>
       </c>
       <c r="N41" t="n">
-        <v>2770.19266990803</v>
+        <v>1979.656338874664</v>
       </c>
       <c r="O41" t="n">
-        <v>2903.675591016261</v>
+        <v>2113.139259982896</v>
       </c>
       <c r="P41" t="n">
-        <v>3055.373719745647</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q41" t="n">
-        <v>3687.425124480431</v>
+        <v>3687.425124480427</v>
       </c>
       <c r="R41" t="n">
-        <v>3906.344509132086</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="S41" t="n">
-        <v>3841.112273123018</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="T41" t="n">
-        <v>3841.112273123018</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="U41" t="n">
-        <v>3841.112273123018</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="V41" t="n">
-        <v>3841.112273123018</v>
+        <v>3543.727559065909</v>
       </c>
       <c r="W41" t="n">
-        <v>3436.256818534051</v>
+        <v>3138.872104476942</v>
       </c>
       <c r="X41" t="n">
-        <v>3329.84845257905</v>
+        <v>2719.729641056253</v>
       </c>
       <c r="Y41" t="n">
-        <v>2921.562328878704</v>
+        <v>2487.787584036999</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>579.6891979750517</v>
+        <v>579.6891979750516</v>
       </c>
       <c r="C42" t="n">
         <v>473.2327368116939</v>
       </c>
       <c r="D42" t="n">
-        <v>378.1424479582472</v>
+        <v>378.1424479582471</v>
       </c>
       <c r="E42" t="n">
-        <v>284.0220332852009</v>
+        <v>284.0220332852008</v>
       </c>
       <c r="F42" t="n">
         <v>200.6381949013625</v>
       </c>
       <c r="G42" t="n">
-        <v>115.6855955713922</v>
+        <v>115.6855955713921</v>
       </c>
       <c r="H42" t="n">
-        <v>78.12689018264172</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I42" t="n">
-        <v>118.7848097542956</v>
+        <v>118.7848097542955</v>
       </c>
       <c r="J42" t="n">
-        <v>483.3908623566325</v>
+        <v>483.3908623566324</v>
       </c>
       <c r="K42" t="n">
-        <v>551.838807594978</v>
+        <v>551.8388075949779</v>
       </c>
       <c r="L42" t="n">
-        <v>643.8755169690251</v>
+        <v>643.8755169690249</v>
       </c>
       <c r="M42" t="n">
-        <v>751.2780157174082</v>
+        <v>751.278015717408</v>
       </c>
       <c r="N42" t="n">
-        <v>861.5231390215515</v>
+        <v>861.5231390215514</v>
       </c>
       <c r="O42" t="n">
-        <v>962.3758887117633</v>
+        <v>962.3758887117632</v>
       </c>
       <c r="P42" t="n">
         <v>1043.319111673631</v>
       </c>
       <c r="Q42" t="n">
-        <v>1638.166451267675</v>
+        <v>1583.461442488408</v>
       </c>
       <c r="R42" t="n">
         <v>1726.952201754327</v>
@@ -7529,13 +7529,13 @@
         <v>1167.66906830352</v>
       </c>
       <c r="W42" t="n">
-        <v>982.3463140367141</v>
+        <v>982.3463140367139</v>
       </c>
       <c r="X42" t="n">
-        <v>827.4788782755941</v>
+        <v>827.478878275594</v>
       </c>
       <c r="Y42" t="n">
-        <v>700.9930990548148</v>
+        <v>700.9930990548147</v>
       </c>
     </row>
     <row r="43">
@@ -7560,16 +7560,16 @@
         <v>457.7900565647545</v>
       </c>
       <c r="G43" t="n">
-        <v>292.5613670168723</v>
+        <v>292.5613670168722</v>
       </c>
       <c r="H43" t="n">
-        <v>155.8829067700802</v>
+        <v>155.8829067700801</v>
       </c>
       <c r="I43" t="n">
-        <v>78.12689018264172</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="J43" t="n">
-        <v>189.8312326722278</v>
+        <v>189.8312326722279</v>
       </c>
       <c r="K43" t="n">
         <v>505.8772172179261</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1813.821322257271</v>
+        <v>1814.312967010421</v>
       </c>
       <c r="C44" t="n">
-        <v>1375.678849440694</v>
+        <v>1376.170494193845</v>
       </c>
       <c r="D44" t="n">
-        <v>939.7690646151389</v>
+        <v>940.2607093682891</v>
       </c>
       <c r="E44" t="n">
-        <v>505.994319773434</v>
+        <v>506.4859645265843</v>
       </c>
       <c r="F44" t="n">
-        <v>78.12689018264172</v>
+        <v>78.61853493579201</v>
       </c>
       <c r="G44" t="n">
-        <v>78.12689018264172</v>
+        <v>78.61853493579201</v>
       </c>
       <c r="H44" t="n">
-        <v>78.12689018264172</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I44" t="n">
-        <v>108.2610888134437</v>
+        <v>108.2610888134436</v>
       </c>
       <c r="J44" t="n">
         <v>610.7558506061011</v>
       </c>
       <c r="K44" t="n">
-        <v>711.5312918502273</v>
+        <v>1545.881583808405</v>
       </c>
       <c r="L44" t="n">
-        <v>836.5521378876471</v>
+        <v>1670.902429845825</v>
       </c>
       <c r="M44" t="n">
-        <v>1803.372403897838</v>
+        <v>1810.012210000559</v>
       </c>
       <c r="N44" t="n">
-        <v>1979.656338874668</v>
+        <v>1979.656338874664</v>
       </c>
       <c r="O44" t="n">
-        <v>2113.1392599829</v>
+        <v>2113.139259982896</v>
       </c>
       <c r="P44" t="n">
-        <v>3055.373719745647</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q44" t="n">
-        <v>3687.425124480431</v>
+        <v>3687.425124480427</v>
       </c>
       <c r="R44" t="n">
-        <v>3906.344509132086</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="S44" t="n">
-        <v>3841.112273123018</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.583475595643</v>
+        <v>3689.815711604707</v>
       </c>
       <c r="U44" t="n">
-        <v>3365.425838673475</v>
+        <v>3430.658074682538</v>
       </c>
       <c r="V44" t="n">
-        <v>3064.118810751835</v>
+        <v>3068.041124616365</v>
       </c>
       <c r="W44" t="n">
-        <v>2659.263356162868</v>
+        <v>3068.041124616365</v>
       </c>
       <c r="X44" t="n">
-        <v>2240.120892742179</v>
+        <v>2648.898661195676</v>
       </c>
       <c r="Y44" t="n">
-        <v>2240.120892742179</v>
+        <v>2240.612537495329</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>579.6891979750517</v>
+        <v>579.6891979750516</v>
       </c>
       <c r="C45" t="n">
         <v>473.2327368116939</v>
       </c>
       <c r="D45" t="n">
-        <v>378.1424479582472</v>
+        <v>378.1424479582471</v>
       </c>
       <c r="E45" t="n">
-        <v>284.0220332852009</v>
+        <v>284.0220332852008</v>
       </c>
       <c r="F45" t="n">
         <v>200.6381949013625</v>
       </c>
       <c r="G45" t="n">
-        <v>115.6855955713922</v>
+        <v>115.6855955713921</v>
       </c>
       <c r="H45" t="n">
-        <v>78.12689018264172</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I45" t="n">
-        <v>92.72113659383795</v>
+        <v>92.72113659383788</v>
       </c>
       <c r="J45" t="n">
-        <v>132.7688642299626</v>
+        <v>428.685853577365</v>
       </c>
       <c r="K45" t="n">
-        <v>280.2619589059822</v>
+        <v>497.1337988157105</v>
       </c>
       <c r="L45" t="n">
-        <v>1247.082224916173</v>
+        <v>589.1705081897577</v>
       </c>
       <c r="M45" t="n">
-        <v>1354.484723664556</v>
+        <v>696.5730069381407</v>
       </c>
       <c r="N45" t="n">
-        <v>1464.7298469687</v>
+        <v>806.818130242284</v>
       </c>
       <c r="O45" t="n">
-        <v>1565.582596658912</v>
+        <v>907.6708799324958</v>
       </c>
       <c r="P45" t="n">
-        <v>1646.525819620779</v>
+        <v>988.6141028943636</v>
       </c>
       <c r="Q45" t="n">
-        <v>1700.634220582748</v>
+        <v>1583.461442488408</v>
       </c>
       <c r="R45" t="n">
         <v>1726.952201754327</v>
@@ -7766,13 +7766,13 @@
         <v>1167.66906830352</v>
       </c>
       <c r="W45" t="n">
-        <v>982.3463140367141</v>
+        <v>982.3463140367139</v>
       </c>
       <c r="X45" t="n">
-        <v>827.4788782755941</v>
+        <v>827.478878275594</v>
       </c>
       <c r="Y45" t="n">
-        <v>700.9930990548148</v>
+        <v>700.9930990548147</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1142.694818667514</v>
+        <v>1142.694818667513</v>
       </c>
       <c r="C46" t="n">
-        <v>970.1331071507389</v>
+        <v>970.1331071507383</v>
       </c>
       <c r="D46" t="n">
-        <v>804.2551143522614</v>
+        <v>804.255114352261</v>
       </c>
       <c r="E46" t="n">
-        <v>634.4971106029984</v>
+        <v>634.4971106029983</v>
       </c>
       <c r="F46" t="n">
-        <v>457.7900565647548</v>
+        <v>457.7900565647545</v>
       </c>
       <c r="G46" t="n">
-        <v>292.5613670168723</v>
+        <v>292.5613670168722</v>
       </c>
       <c r="H46" t="n">
-        <v>155.8829067700802</v>
+        <v>155.8829067700801</v>
       </c>
       <c r="I46" t="n">
-        <v>78.12689018264172</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="J46" t="n">
-        <v>189.8312326722278</v>
+        <v>189.8312326722277</v>
       </c>
       <c r="K46" t="n">
-        <v>505.877217217926</v>
+        <v>505.8772172179259</v>
       </c>
       <c r="L46" t="n">
         <v>976.920922554275</v>
@@ -7824,7 +7824,7 @@
         <v>2458.649930339091</v>
       </c>
       <c r="P46" t="n">
-        <v>2849.137207625676</v>
+        <v>2849.137207625675</v>
       </c>
       <c r="Q46" t="n">
         <v>3047.087372051486</v>
@@ -7842,13 +7842,13 @@
         <v>2366.306775282258</v>
       </c>
       <c r="V46" t="n">
-        <v>2079.351267152689</v>
+        <v>2079.351267152688</v>
       </c>
       <c r="W46" t="n">
         <v>1807.32486273898</v>
       </c>
       <c r="X46" t="n">
-        <v>1561.933108072393</v>
+        <v>1561.933108072392</v>
       </c>
       <c r="Y46" t="n">
         <v>1334.513437386501</v>
@@ -7990,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="O2" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="O3" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="L8" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -8531,31 +8531,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M9" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>836.0711978337953</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>833.7975193714706</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>28.5690980218892</v>
       </c>
       <c r="P11" t="n">
-        <v>590.1740704632612</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>490.9433634876852</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>642.9852898580893</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>833.7975193714715</v>
+        <v>833.7975193714703</v>
       </c>
       <c r="O14" t="n">
-        <v>841.7548938403629</v>
+        <v>841.7548938403615</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>32.47139874094046</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>98.23592259370753</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>865.2274168747958</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>490.943363487685</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>640.8039493996894</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>490.9433634876852</v>
       </c>
       <c r="R18" t="n">
-        <v>89.42569947023253</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908117</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,19 +9409,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>105.3140634042647</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>106.9037672842705</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>298.9060498458614</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>490.9433634876852</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>105.3140634042647</v>
       </c>
       <c r="N23" t="n">
-        <v>1043.930822637326</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>135.4601410046665</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>490.9433634876852</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960971</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9880,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1129.703208543338</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8788135413797</v>
+        <v>1127.429530081014</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>690.1689055436937</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>272.5791072595406</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>490.9433634876852</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10114,28 +10114,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>79.65501442654784</v>
       </c>
       <c r="L29" t="n">
-        <v>232.392704361851</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1129.703208543338</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1127.429530081014</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>298.9060498458614</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>490.9433634876852</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908114</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10351,19 +10351,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>948.0921360892921</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10427,10 +10427,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>131.170439140044</v>
+        <v>490.9433634876852</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10515,13 +10515,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645591</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>201.1527499522981</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10664,13 +10664,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>818.7800553727483</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>490.9433634876852</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1127.429530081013</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4188368328905</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>845.1069979590693</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>490.9433634876852</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>28.56909802189011</v>
       </c>
       <c r="M41" t="n">
-        <v>836.0711978337957</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>833.7975193714715</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>38.15509474750979</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>490.943363487685</v>
       </c>
       <c r="R42" t="n">
-        <v>63.09875688391185</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908087</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11299,16 +11299,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>836.0711978337957</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>35.27597287312688</v>
+        <v>28.56909802189011</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K45" t="n">
-        <v>79.84358529057994</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>883.6197541779235</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.2153720958832</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>56.94043494247626</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>320.9069181086519</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>29.3737848512863</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T41" t="n">
         <v>214.3635095521018</v>
@@ -25687,16 +25687,16 @@
         <v>256.5660605529466</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>309.6067564910314</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>174.5806260142823</v>
       </c>
     </row>
     <row r="42">
@@ -25882,7 +25882,7 @@
         <v>396.5836142728854</v>
       </c>
       <c r="H44" t="n">
-        <v>278.0434075022746</v>
+        <v>277.5566791966558</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>60.69682292308823</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>475642.7258977623</v>
+        <v>475642.7258977622</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>475642.7258977626</v>
+        <v>475642.7258977622</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>580553.5918925987</v>
+        <v>580553.5918925988</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580553.5918925987</v>
+        <v>580553.5918925988</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>580553.5918925987</v>
+        <v>580553.5918925988</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>580553.5918925988</v>
+        <v>580553.5918925987</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>580553.5918925987</v>
+        <v>580553.5918925988</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>580553.5918925987</v>
+        <v>580553.5918925988</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580553.5918925987</v>
+        <v>580553.5918925988</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>475642.7258977626</v>
+        <v>475642.7258977622</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>475642.7258977626</v>
+        <v>475642.7258977622</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>495936.2708986277</v>
+      </c>
+      <c r="C2" t="n">
         <v>495936.2708986278</v>
-      </c>
-      <c r="C2" t="n">
-        <v>495936.2708986276</v>
       </c>
       <c r="D2" t="n">
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>412032.8899983198</v>
+        <v>412032.8899983196</v>
       </c>
       <c r="F2" t="n">
-        <v>412032.88999832</v>
+        <v>412032.8899983196</v>
       </c>
       <c r="G2" t="n">
         <v>495936.270898628</v>
       </c>
       <c r="H2" t="n">
+        <v>495936.270898628</v>
+      </c>
+      <c r="I2" t="n">
+        <v>495936.2708986281</v>
+      </c>
+      <c r="J2" t="n">
         <v>495936.2708986279</v>
       </c>
-      <c r="I2" t="n">
-        <v>495936.270898628</v>
-      </c>
-      <c r="J2" t="n">
-        <v>495936.270898628</v>
-      </c>
       <c r="K2" t="n">
-        <v>495936.2708986279</v>
+        <v>495936.2708986281</v>
       </c>
       <c r="L2" t="n">
         <v>495936.270898628</v>
       </c>
       <c r="M2" t="n">
-        <v>495936.270898628</v>
+        <v>495936.2708986279</v>
       </c>
       <c r="N2" t="n">
         <v>495936.270898628</v>
       </c>
       <c r="O2" t="n">
-        <v>412032.88999832</v>
+        <v>412032.8899983198</v>
       </c>
       <c r="P2" t="n">
-        <v>412032.88999832</v>
+        <v>412032.8899983198</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>439176.3000934849</v>
+        <v>439176.3000934848</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80480.12965532485</v>
+        <v>80480.1296553252</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>233073.3052439821</v>
+        <v>233073.3052439818</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>300452.3867499857</v>
       </c>
       <c r="E4" t="n">
-        <v>108829.5250961499</v>
+        <v>108829.5250961498</v>
       </c>
       <c r="F4" t="n">
-        <v>108829.5250961499</v>
+        <v>108829.5250961498</v>
       </c>
       <c r="G4" t="n">
-        <v>139046.4680599959</v>
+        <v>139046.468059996</v>
       </c>
       <c r="H4" t="n">
-        <v>139046.4680599959</v>
+        <v>139046.468059996</v>
       </c>
       <c r="I4" t="n">
         <v>139046.4680599959</v>
@@ -26444,22 +26444,22 @@
         <v>139046.4680599959</v>
       </c>
       <c r="K4" t="n">
-        <v>139046.4680599959</v>
+        <v>139046.468059996</v>
       </c>
       <c r="L4" t="n">
-        <v>139046.4680599959</v>
+        <v>139046.468059996</v>
       </c>
       <c r="M4" t="n">
-        <v>139046.4680599959</v>
+        <v>139046.468059996</v>
       </c>
       <c r="N4" t="n">
-        <v>139046.4680599959</v>
+        <v>139046.468059996</v>
       </c>
       <c r="O4" t="n">
-        <v>108829.5250961499</v>
+        <v>108829.5250961498</v>
       </c>
       <c r="P4" t="n">
-        <v>108829.5250961499</v>
+        <v>108829.5250961498</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>63715.93143773224</v>
+        <v>63715.9314377322</v>
       </c>
       <c r="F5" t="n">
-        <v>63715.93143773228</v>
+        <v>63715.9314377322</v>
       </c>
       <c r="G5" t="n">
-        <v>81568.75768887243</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="H5" t="n">
-        <v>81568.75768887243</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="I5" t="n">
-        <v>81568.75768887243</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="J5" t="n">
         <v>81568.75768887243</v>
@@ -26499,19 +26499,19 @@
         <v>81568.75768887243</v>
       </c>
       <c r="L5" t="n">
-        <v>81568.75768887243</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="M5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="N5" t="n">
-        <v>81568.75768887241</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="O5" t="n">
-        <v>63715.93143773227</v>
+        <v>63715.93143773222</v>
       </c>
       <c r="P5" t="n">
-        <v>63715.93143773227</v>
+        <v>63715.93143773222</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145498.7241970559</v>
+        <v>145498.7241970558</v>
       </c>
       <c r="C6" t="n">
         <v>159344.3319633523</v>
@@ -26530,13 +26530,13 @@
         <v>159344.3319633523</v>
       </c>
       <c r="E6" t="n">
-        <v>-199688.8666290472</v>
+        <v>-199915.6325233723</v>
       </c>
       <c r="F6" t="n">
-        <v>239487.4334644378</v>
+        <v>239260.6675701124</v>
       </c>
       <c r="G6" t="n">
-        <v>194840.9154944348</v>
+        <v>194840.9154944344</v>
       </c>
       <c r="H6" t="n">
         <v>275321.0451497596</v>
@@ -26545,25 +26545,25 @@
         <v>275321.0451497597</v>
       </c>
       <c r="J6" t="n">
-        <v>264511.2224923924</v>
+        <v>264511.2224923923</v>
       </c>
       <c r="K6" t="n">
-        <v>275321.0451497596</v>
+        <v>275321.0451497597</v>
       </c>
       <c r="L6" t="n">
         <v>275321.0451497596</v>
       </c>
       <c r="M6" t="n">
-        <v>42247.73990577762</v>
+        <v>42247.73990577774</v>
       </c>
       <c r="N6" t="n">
         <v>275321.0451497596</v>
       </c>
       <c r="O6" t="n">
-        <v>239487.4334644378</v>
+        <v>239260.6675701126</v>
       </c>
       <c r="P6" t="n">
-        <v>239487.4334644378</v>
+        <v>239260.6675701127</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>976.5861272830209</v>
+        <v>976.5861272830203</v>
       </c>
       <c r="F4" t="n">
-        <v>976.5861272830216</v>
+        <v>976.5861272830203</v>
       </c>
       <c r="G4" t="n">
         <v>1270.218137992564</v>
@@ -26825,13 +26825,13 @@
         <v>1270.218137992564</v>
       </c>
       <c r="N4" t="n">
-        <v>1270.218137992563</v>
+        <v>1270.218137992564</v>
       </c>
       <c r="O4" t="n">
-        <v>976.5861272830215</v>
+        <v>976.5861272830206</v>
       </c>
       <c r="P4" t="n">
-        <v>976.5861272830215</v>
+        <v>976.5861272830206</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>935.2711242354935</v>
+        <v>935.2711242354929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>293.6320107095421</v>
+        <v>293.6320107095434</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>935.271124235494</v>
+        <v>935.2711242354929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>935.2711242354935</v>
+        <v>935.2711242354929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>293.6320107095421</v>
+        <v>293.6320107095434</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27469,10 +27469,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H3" t="n">
         <v>0.003292614422299778</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>92.48660254844231</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27545,16 +27545,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>46.45834668554406</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V4" t="n">
-        <v>268.8993414456936</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27697,7 +27697,7 @@
         <v>83.70060738470343</v>
       </c>
       <c r="C6" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
         <v>94.13938596491228</v>
@@ -27709,10 +27709,10 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -27757,7 +27757,7 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C7" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27785,10 +27785,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>142.462343412403</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>207.0303972730672</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -27839,10 +27839,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="8">
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.70060738470343</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
         <v>41.31829566194965</v>
@@ -27985,19 +27985,19 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U9" t="n">
         <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28013,19 +28013,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>155.6494827990271</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28064,10 +28064,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098019</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H11" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I11" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J11" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K11" t="n">
         <v>101.7933749940668</v>
@@ -31770,31 +31770,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N11" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O11" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P11" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R11" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S11" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T11" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H12" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I12" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J12" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L12" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M12" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N12" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O12" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P12" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R12" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S12" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T12" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H13" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I13" t="n">
         <v>10.79489331150735</v>
@@ -31922,37 +31922,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K13" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L13" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M13" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N13" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O13" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P13" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R13" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S13" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T13" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H14" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I14" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J14" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K14" t="n">
         <v>101.7933749940668</v>
@@ -32007,31 +32007,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N14" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O14" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P14" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q14" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R14" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S14" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T14" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H15" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I15" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J15" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L15" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M15" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N15" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O15" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P15" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R15" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S15" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T15" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H16" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I16" t="n">
         <v>10.79489331150735</v>
@@ -32159,37 +32159,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K16" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L16" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M16" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N16" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O16" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P16" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R16" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S16" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T16" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H17" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I17" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J17" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K17" t="n">
         <v>101.7933749940668</v>
@@ -32244,31 +32244,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N17" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O17" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P17" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R17" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S17" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T17" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H18" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I18" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J18" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K18" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L18" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M18" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N18" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O18" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P18" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R18" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S18" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T18" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H19" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I19" t="n">
         <v>10.79489331150735</v>
@@ -32396,37 +32396,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K19" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L19" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N19" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O19" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P19" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R19" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S19" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T19" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H20" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I20" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K20" t="n">
         <v>101.7933749940668</v>
@@ -32481,31 +32481,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N20" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O20" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P20" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R20" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S20" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T20" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H21" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I21" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J21" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K21" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L21" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M21" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N21" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O21" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R21" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S21" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T21" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H22" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I22" t="n">
         <v>10.79489331150735</v>
@@ -32633,37 +32633,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K22" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L22" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M22" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N22" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O22" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P22" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R22" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S22" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T22" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H23" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I23" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K23" t="n">
         <v>101.7933749940668</v>
@@ -32718,31 +32718,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M23" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O23" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P23" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R23" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S23" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T23" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H24" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I24" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J24" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K24" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L24" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M24" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N24" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O24" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P24" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R24" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S24" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T24" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H25" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I25" t="n">
         <v>10.79489331150735</v>
@@ -32870,37 +32870,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K25" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L25" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M25" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N25" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O25" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P25" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q25" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R25" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S25" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T25" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H26" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I26" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K26" t="n">
         <v>101.7933749940668</v>
@@ -32955,31 +32955,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M26" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N26" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O26" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P26" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R26" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S26" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T26" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H27" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I27" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J27" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K27" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L27" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M27" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N27" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O27" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R27" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S27" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T27" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H28" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I28" t="n">
         <v>10.79489331150735</v>
@@ -33107,37 +33107,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K28" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L28" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M28" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N28" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O28" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P28" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R28" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S28" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T28" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H29" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I29" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K29" t="n">
         <v>101.7933749940668</v>
@@ -33192,31 +33192,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M29" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N29" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O29" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P29" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R29" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S29" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T29" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H30" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I30" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J30" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K30" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L30" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M30" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N30" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O30" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R30" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S30" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T30" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H31" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I31" t="n">
         <v>10.79489331150735</v>
@@ -33344,37 +33344,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K31" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L31" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M31" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N31" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O31" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P31" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R31" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S31" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T31" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H32" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I32" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J32" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K32" t="n">
         <v>101.7933749940668</v>
@@ -33429,31 +33429,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M32" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O32" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P32" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R32" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S32" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T32" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H33" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I33" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J33" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K33" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L33" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M33" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N33" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O33" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P33" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R33" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S33" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T33" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H34" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I34" t="n">
         <v>10.79489331150735</v>
@@ -33581,37 +33581,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K34" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L34" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M34" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N34" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O34" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P34" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q34" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R34" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S34" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T34" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H35" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I35" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J35" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K35" t="n">
         <v>101.7933749940668</v>
@@ -33666,31 +33666,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M35" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N35" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O35" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P35" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R35" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S35" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T35" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H36" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I36" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J36" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K36" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L36" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M36" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N36" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O36" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P36" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R36" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S36" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T36" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H37" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I37" t="n">
         <v>10.79489331150735</v>
@@ -33818,37 +33818,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K37" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L37" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M37" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N37" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O37" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P37" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q37" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R37" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S37" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T37" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H38" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I38" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J38" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K38" t="n">
         <v>101.7933749940668</v>
@@ -33903,31 +33903,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M38" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N38" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O38" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P38" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R38" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S38" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T38" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H39" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I39" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J39" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K39" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L39" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M39" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N39" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O39" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P39" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R39" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S39" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T39" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H40" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I40" t="n">
         <v>10.79489331150735</v>
@@ -34055,37 +34055,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K40" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L40" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M40" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N40" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O40" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P40" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R40" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S40" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T40" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H41" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I41" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J41" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K41" t="n">
         <v>101.7933749940668</v>
@@ -34140,31 +34140,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M41" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N41" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O41" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P41" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q41" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R41" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S41" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T41" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H42" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I42" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J42" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K42" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L42" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M42" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N42" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O42" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P42" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R42" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S42" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T42" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H43" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I43" t="n">
         <v>10.79489331150735</v>
@@ -34292,37 +34292,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K43" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L43" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M43" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N43" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O43" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P43" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R43" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S43" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T43" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8002387900833642</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H44" t="n">
-        <v>8.195445508941255</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I44" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J44" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K44" t="n">
         <v>101.7933749940668</v>
@@ -34377,31 +34377,31 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M44" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N44" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O44" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P44" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q44" t="n">
-        <v>86.41678664261495</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R44" t="n">
-        <v>50.26799989757417</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S44" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T44" t="n">
-        <v>3.503045303589928</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06401910320666912</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4281654998073399</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H45" t="n">
-        <v>4.135177327086678</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I45" t="n">
-        <v>14.74166304161236</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J45" t="n">
-        <v>40.45225013749961</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K45" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L45" t="n">
-        <v>92.9663731050981</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M45" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N45" t="n">
         <v>111.3587104082257</v>
       </c>
       <c r="O45" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461389</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R45" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S45" t="n">
-        <v>7.952986367035454</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T45" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3589595720271486</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H46" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I46" t="n">
         <v>10.79489331150735</v>
@@ -34529,37 +34529,37 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K46" t="n">
-        <v>41.70457573188144</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L46" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26854454967385</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N46" t="n">
-        <v>54.93060432666361</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O46" t="n">
-        <v>50.73730387161917</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P46" t="n">
         <v>43.41452860226531</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.05796925401878</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R46" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S46" t="n">
-        <v>6.255686359782215</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T46" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01957961301966267</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="O2" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="O3" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="L8" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -35251,31 +35251,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M9" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J11" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K11" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L11" t="n">
         <v>126.2836828660807</v>
       </c>
       <c r="M11" t="n">
-        <v>976.5861272830209</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N11" t="n">
-        <v>976.5861272830207</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O11" t="n">
-        <v>134.8312334426587</v>
+        <v>163.4003314645479</v>
       </c>
       <c r="P11" t="n">
-        <v>705.2494087757368</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R11" t="n">
         <v>221.1306915673285</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>41.06860562793317</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J12" t="n">
-        <v>368.2889420225625</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459135</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L12" t="n">
         <v>92.96637310509811</v>
@@ -35506,10 +35506,10 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P12" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q12" t="n">
-        <v>545.5983139543205</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R12" t="n">
         <v>144.9401608746653</v>
@@ -35576,16 +35576,16 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M13" t="n">
-        <v>520.3936629142327</v>
+        <v>520.3936629142326</v>
       </c>
       <c r="N13" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O13" t="n">
         <v>474.6456364229134</v>
       </c>
       <c r="P13" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q13" t="n">
         <v>199.9496610361725</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J14" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K14" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L14" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M14" t="n">
-        <v>783.5002193073149</v>
+        <v>140.5149294492256</v>
       </c>
       <c r="N14" t="n">
-        <v>976.5861272830216</v>
+        <v>976.5861272830205</v>
       </c>
       <c r="O14" t="n">
-        <v>976.5861272830216</v>
+        <v>976.5861272830202</v>
       </c>
       <c r="P14" t="n">
-        <v>115.0753383124757</v>
+        <v>147.5467370534161</v>
       </c>
       <c r="Q14" t="n">
         <v>638.4357623583674</v>
       </c>
       <c r="R14" t="n">
-        <v>50.2679998975741</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.74166304161237</v>
+        <v>41.0686056279332</v>
       </c>
       <c r="J15" t="n">
-        <v>40.45225013749962</v>
+        <v>368.2889420225626</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459137</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L15" t="n">
         <v>92.96637310509811</v>
       </c>
       <c r="M15" t="n">
-        <v>206.7232950668217</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N15" t="n">
-        <v>976.5861272830216</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O15" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P15" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.65495046663523</v>
+        <v>545.5983139543202</v>
       </c>
       <c r="R15" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>319.238368227978</v>
       </c>
       <c r="L16" t="n">
-        <v>475.8017225619688</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M16" t="n">
         <v>520.3936629142326</v>
       </c>
       <c r="N16" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O16" t="n">
         <v>474.6456364229134</v>
       </c>
       <c r="P16" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q16" t="n">
         <v>199.9496610361725</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J17" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K17" t="n">
-        <v>944.5714476790949</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L17" t="n">
-        <v>126.2836828660807</v>
+        <v>327.4364328183788</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5149294492255</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N17" t="n">
-        <v>783.5925573112395</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O17" t="n">
         <v>1124.911704725796</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J18" t="n">
-        <v>368.2889420225626</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K18" t="n">
         <v>69.13933862459135</v>
@@ -35980,13 +35980,13 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P18" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q18" t="n">
-        <v>600.8558985798429</v>
+        <v>545.5983139543205</v>
       </c>
       <c r="R18" t="n">
-        <v>116.0095188354637</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>112.8326691814006</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K19" t="n">
         <v>319.238368227978</v>
       </c>
       <c r="L19" t="n">
-        <v>475.8017225619686</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M19" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N19" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O19" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P19" t="n">
         <v>394.4315932187724</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K20" t="n">
-        <v>944.5714476790949</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L20" t="n">
         <v>1212.202840697252</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5149294492257</v>
+        <v>245.8289928534905</v>
       </c>
       <c r="N20" t="n">
         <v>142.7886079115501</v>
       </c>
       <c r="O20" t="n">
-        <v>1124.911704725796</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P20" t="n">
         <v>951.7519795583303</v>
       </c>
       <c r="Q20" t="n">
-        <v>193.3205539268856</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R20" t="n">
         <v>221.1306915673285</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J21" t="n">
-        <v>40.45225013749962</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K21" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L21" t="n">
-        <v>391.8724229509595</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M21" t="n">
         <v>108.4873724731142</v>
@@ -36217,10 +36217,10 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q21" t="n">
-        <v>600.8558985798429</v>
+        <v>545.5983139543205</v>
       </c>
       <c r="R21" t="n">
         <v>144.9401608746653</v>
@@ -36281,7 +36281,7 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K22" t="n">
-        <v>319.2383682279781</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L22" t="n">
         <v>475.8017225619687</v>
@@ -36296,10 +36296,10 @@
         <v>474.6456364229134</v>
       </c>
       <c r="P22" t="n">
-        <v>394.4315932187728</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q22" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J23" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K23" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L23" t="n">
-        <v>126.2836828660807</v>
+        <v>1212.202840697252</v>
       </c>
       <c r="M23" t="n">
-        <v>140.5149294492256</v>
+        <v>245.8289928534905</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.719430548876</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O23" t="n">
-        <v>1124.911704725796</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P23" t="n">
         <v>951.7519795583303</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J24" t="n">
-        <v>40.45225013749962</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K24" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L24" t="n">
         <v>92.96637310509811</v>
       </c>
       <c r="M24" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N24" t="n">
-        <v>111.3587104082257</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O24" t="n">
-        <v>237.3316053382138</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P24" t="n">
-        <v>909.7640297384505</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.65495046663523</v>
+        <v>545.5983139543205</v>
       </c>
       <c r="R24" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K25" t="n">
-        <v>319.2383682279785</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L25" t="n">
-        <v>475.8017225619686</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M25" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N25" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O25" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P25" t="n">
         <v>394.4315932187724</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K26" t="n">
         <v>101.7933749940668</v>
       </c>
       <c r="L26" t="n">
-        <v>126.2836828660806</v>
+        <v>1212.202840697252</v>
       </c>
       <c r="M26" t="n">
         <v>1270.218137992564</v>
       </c>
       <c r="N26" t="n">
-        <v>496.6674214529296</v>
+        <v>1270.218137992564</v>
       </c>
       <c r="O26" t="n">
-        <v>1124.911704725796</v>
+        <v>825.0001389863519</v>
       </c>
       <c r="P26" t="n">
-        <v>951.7519795583303</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q26" t="n">
-        <v>638.4357623583674</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R26" t="n">
-        <v>221.1306915673285</v>
+        <v>50.26799989757455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>41.06860562793317</v>
       </c>
       <c r="J27" t="n">
-        <v>313.0313573970402</v>
+        <v>368.2889420225626</v>
       </c>
       <c r="K27" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L27" t="n">
         <v>92.96637310509811</v>
@@ -36691,10 +36691,10 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q27" t="n">
-        <v>600.8558985798429</v>
+        <v>545.5983139543205</v>
       </c>
       <c r="R27" t="n">
         <v>144.9401608746653</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J29" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K29" t="n">
-        <v>944.5714476790951</v>
+        <v>181.4483894206147</v>
       </c>
       <c r="L29" t="n">
-        <v>358.6763872279316</v>
+        <v>1212.202840697252</v>
       </c>
       <c r="M29" t="n">
         <v>1270.218137992564</v>
       </c>
       <c r="N29" t="n">
-        <v>142.7886079115501</v>
+        <v>1270.218137992564</v>
       </c>
       <c r="O29" t="n">
-        <v>134.8312334426587</v>
+        <v>134.8312334426582</v>
       </c>
       <c r="P29" t="n">
-        <v>951.7519795583303</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q29" t="n">
-        <v>638.4357623583674</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R29" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793317</v>
       </c>
       <c r="J30" t="n">
-        <v>339.358299983361</v>
+        <v>368.2889420225626</v>
       </c>
       <c r="K30" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L30" t="n">
         <v>92.96637310509811</v>
@@ -36928,10 +36928,10 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q30" t="n">
-        <v>600.8558985798429</v>
+        <v>545.5983139543205</v>
       </c>
       <c r="R30" t="n">
         <v>144.9401608746653</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>112.8326691814001</v>
+        <v>112.8326691814006</v>
       </c>
       <c r="K31" t="n">
-        <v>319.2383682279781</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L31" t="n">
-        <v>475.8017225619687</v>
+        <v>475.8017225619686</v>
       </c>
       <c r="M31" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142326</v>
       </c>
       <c r="N31" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O31" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P31" t="n">
         <v>394.4315932187724</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J32" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K32" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L32" t="n">
-        <v>1212.202840697252</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M32" t="n">
-        <v>1088.607065538518</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
-        <v>142.7886079115501</v>
+        <v>343.9413578638482</v>
       </c>
       <c r="O32" t="n">
-        <v>134.8312334426587</v>
+        <v>1124.911704725796</v>
       </c>
       <c r="P32" t="n">
         <v>951.7519795583303</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>41.06860562793317</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J33" t="n">
-        <v>40.45225013749962</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K33" t="n">
-        <v>756.7489548572958</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L33" t="n">
-        <v>92.966373105098</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M33" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N33" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O33" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P33" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q33" t="n">
-        <v>185.8253896066792</v>
+        <v>545.5983139543205</v>
       </c>
       <c r="R33" t="n">
         <v>144.9401608746653</v>
@@ -37229,19 +37229,19 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K34" t="n">
-        <v>319.2383682279781</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L34" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M34" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142329</v>
       </c>
       <c r="N34" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O34" t="n">
-        <v>474.6456364229139</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P34" t="n">
         <v>394.4315932187724</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J35" t="n">
         <v>507.5704664572298</v>
@@ -37311,13 +37311,13 @@
         <v>944.5714476790951</v>
       </c>
       <c r="L35" t="n">
-        <v>327.4364328183788</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M35" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N35" t="n">
-        <v>142.7886079115501</v>
+        <v>343.9413578638482</v>
       </c>
       <c r="O35" t="n">
         <v>1124.911704725796</v>
@@ -37384,28 +37384,28 @@
         <v>41.06860562793318</v>
       </c>
       <c r="J36" t="n">
-        <v>40.45225013749962</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K36" t="n">
-        <v>69.13933862459137</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L36" t="n">
-        <v>911.7464284778464</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M36" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N36" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O36" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P36" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.65495046663523</v>
+        <v>545.5983139543205</v>
       </c>
       <c r="R36" t="n">
         <v>144.9401608746653</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J38" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K38" t="n">
-        <v>944.5714476790952</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L38" t="n">
         <v>126.2836828660807</v>
@@ -37554,16 +37554,16 @@
         <v>140.5149294492257</v>
       </c>
       <c r="N38" t="n">
-        <v>1270.218137992563</v>
+        <v>343.9413578638482</v>
       </c>
       <c r="O38" t="n">
         <v>1124.911704725796</v>
       </c>
       <c r="P38" t="n">
-        <v>115.0753383124757</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q38" t="n">
-        <v>548.8356234755056</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R38" t="n">
         <v>221.1306915673285</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J39" t="n">
-        <v>40.4522501374996</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K39" t="n">
-        <v>69.13933862459137</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L39" t="n">
         <v>92.96637310509811</v>
       </c>
       <c r="M39" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N39" t="n">
         <v>111.3587104082256</v>
       </c>
       <c r="O39" t="n">
-        <v>946.9784622926165</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P39" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.65495046663523</v>
+        <v>545.5983139543205</v>
       </c>
       <c r="R39" t="n">
         <v>144.9401608746653</v>
@@ -37703,7 +37703,7 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K40" t="n">
-        <v>319.2383682279781</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L40" t="n">
         <v>475.8017225619687</v>
@@ -37721,7 +37721,7 @@
         <v>394.4315932187724</v>
       </c>
       <c r="Q40" t="n">
-        <v>199.949661036173</v>
+        <v>199.9496610361725</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J41" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K41" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L41" t="n">
-        <v>126.2836828660807</v>
+        <v>154.8527808879708</v>
       </c>
       <c r="M41" t="n">
-        <v>976.5861272830214</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N41" t="n">
-        <v>976.5861272830216</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O41" t="n">
         <v>134.8312334426587</v>
       </c>
       <c r="P41" t="n">
-        <v>153.2304330599854</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q41" t="n">
         <v>638.4357623583674</v>
@@ -37858,7 +37858,7 @@
         <v>41.06860562793318</v>
       </c>
       <c r="J42" t="n">
-        <v>368.2889420225627</v>
+        <v>368.2889420225626</v>
       </c>
       <c r="K42" t="n">
         <v>69.13933862459135</v>
@@ -37876,13 +37876,13 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P42" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q42" t="n">
-        <v>600.8558985798429</v>
+        <v>545.5983139543202</v>
       </c>
       <c r="R42" t="n">
-        <v>89.68257624914304</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>112.8326691814001</v>
+        <v>112.8326691814003</v>
       </c>
       <c r="K43" t="n">
-        <v>319.2383682279781</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L43" t="n">
         <v>475.8017225619687</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J44" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K44" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L44" t="n">
         <v>126.2836828660807</v>
       </c>
       <c r="M44" t="n">
-        <v>976.5861272830214</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N44" t="n">
-        <v>178.064580784677</v>
+        <v>171.3577059334402</v>
       </c>
       <c r="O44" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P44" t="n">
         <v>951.7519795583303</v>
@@ -38095,31 +38095,31 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J45" t="n">
-        <v>40.4522501374996</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K45" t="n">
-        <v>148.9829239151713</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L45" t="n">
-        <v>976.5861272830215</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M45" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N45" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O45" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R45" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K46" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L46" t="n">
         <v>475.8017225619687</v>
@@ -38192,7 +38192,7 @@
         <v>474.6456364229134</v>
       </c>
       <c r="P46" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q46" t="n">
         <v>199.9496610361725</v>
